--- a/EndToEnd/output.xlsx
+++ b/EndToEnd/output.xlsx
@@ -1,50 +1,69 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <s:workbookPr/>
-  <s:bookViews>
-    <s:workbookView activeTab="0"/>
-  </s:bookViews>
-  <s:sheets>
-    <s:sheet name="Sheet" sheetId="1" r:id="rId1"/>
-  </s:sheets>
-  <s:definedNames/>
-  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
-</s:workbook>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <bookViews>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+  </sheets>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+</workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
-    <t>sequence to use:</t>
+    <t>Sequence</t>
   </si>
   <si>
-    <t>fitness improvement:</t>
+    <t>Steel Grade</t>
+  </si>
+  <si>
+    <t>Zinc Thickness</t>
+  </si>
+  <si>
+    <t>Steel Width</t>
+  </si>
+  <si>
+    <t>Steel Thickness</t>
+  </si>
+  <si>
+    <t>Transition</t>
+  </si>
+  <si>
+    <t>last generation fit:</t>
   </si>
   <si>
     <t>penalty improvement:</t>
-  </si>
-  <si>
-    <t>last generation fit:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -60,17 +79,1081 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:style val="3"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Steel Grade (0.2)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Steel Grade</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$24</c:f>
+              <c:strCache>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Transition</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Transition</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Transition</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>8.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.958</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.630000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.851</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.156</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.212</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.456</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.54</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.15</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.3165</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.6545</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.3255</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.45</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.538</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.21502</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.56</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.9856</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.544</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="50010001"/>
+        <c:axId val="50010002"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="50010001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Sequence</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50010002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50010002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Steel Grade</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50010001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:style val="3"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Zinc Thickness (0.5)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Zinc Thickness</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$24</c:f>
+              <c:strCache>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Transition</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Transition</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Transition</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>54.89</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>66.114</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>62.26</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>78.56</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>62.15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>65.15600000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>53.15</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45.2313</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43.56</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>52.25</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>69.56</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>74.15600000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>79.15600000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>74.651651</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>69.56100000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>75.56999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>67.15600000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>50.13</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>40.01</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>42.15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="50020001"/>
+        <c:axId val="50020002"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="50020001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Sequence</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50020002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50020002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Zinc Thickness</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50020001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:style val="3"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Steel width (0.2) and thickness (0.1)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Steel Grade</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$24</c:f>
+              <c:strCache>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Transition</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Transition</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Transition</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>5.86</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.46</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.456</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.1651</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.78</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.75</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.456</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.56</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.56</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.156000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.85</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.65</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.478</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.56</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.122999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8.153</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8.456</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.1561</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.65</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Zinc Thickness</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$24</c:f>
+              <c:strCache>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Transition</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Transition</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Transition</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>79.468</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64.23</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75.15600000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>56.56</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24.26</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>26.145</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>26.4864</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>28.486</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>29.24</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>75.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>65.44450000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>74.562</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>23.23</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>74.56</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>77.1561651</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>79.55</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>54.23</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>65.2323</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="50030001"/>
+        <c:axId val="50030002"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="50030001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Sequence</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50030002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50030002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>width and thick</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50030001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -357,142 +1440,403 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <s:sheetPr>
-    <s:outlinePr summaryBelow="1" summaryRight="1"/>
-  </s:sheetPr>
-  <dimension ref="A1:D21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="n">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>15</v>
+      </c>
+      <c r="B2">
+        <v>8.6</v>
+      </c>
+      <c r="C2">
+        <v>54.89</v>
+      </c>
+      <c r="D2">
+        <v>5.86</v>
+      </c>
+      <c r="E2">
+        <v>79.468</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>7.958</v>
+      </c>
+      <c r="C3">
+        <v>66.114</v>
+      </c>
+      <c r="D3">
+        <v>7.46</v>
+      </c>
+      <c r="E3">
+        <v>64.23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>19</v>
+      </c>
+      <c r="B4">
+        <v>8.630000000000001</v>
+      </c>
+      <c r="C4">
+        <v>62.26</v>
+      </c>
+      <c r="D4">
+        <v>9.9</v>
+      </c>
+      <c r="E4">
+        <v>75.15600000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>6.851</v>
+      </c>
+      <c r="C6">
+        <v>78.56</v>
+      </c>
+      <c r="D6">
+        <v>7.456</v>
+      </c>
+      <c r="E6">
+        <v>56.56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>2.156</v>
+      </c>
+      <c r="C8">
+        <v>62.15</v>
+      </c>
+      <c r="D8">
+        <v>5.1651</v>
+      </c>
+      <c r="E8">
+        <v>24.26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>6.212</v>
+      </c>
+      <c r="C9">
+        <v>65.15600000000001</v>
+      </c>
+      <c r="D9">
+        <v>4.78</v>
+      </c>
+      <c r="E9">
+        <v>26.145</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>4.7</v>
+      </c>
+      <c r="C10">
+        <v>53.15</v>
+      </c>
+      <c r="D10">
+        <v>5.75</v>
+      </c>
+      <c r="E10">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>4.456</v>
+      </c>
+      <c r="C11">
+        <v>45.2313</v>
+      </c>
+      <c r="D11">
+        <v>7.456</v>
+      </c>
+      <c r="E11">
+        <v>26.4864</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
         <v>1</v>
       </c>
-      <c r="D1" t="n">
-        <v>108.8387722655751</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="B2" t="n">
-        <v>17</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>76.66652301637549</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="B4" t="n">
+      <c r="B12">
+        <v>6.54</v>
+      </c>
+      <c r="C12">
+        <v>43.56</v>
+      </c>
+      <c r="D12">
+        <v>4.56</v>
+      </c>
+      <c r="E12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>18</v>
+      </c>
+      <c r="B14">
+        <v>3.15</v>
+      </c>
+      <c r="C14">
+        <v>52.25</v>
+      </c>
+      <c r="D14">
+        <v>8.56</v>
+      </c>
+      <c r="E14">
+        <v>28.486</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="B5" t="n">
+      <c r="B15">
+        <v>2.3165</v>
+      </c>
+      <c r="C15">
+        <v>69.56</v>
+      </c>
+      <c r="D15">
+        <v>9.156000000000001</v>
+      </c>
+      <c r="E15">
+        <v>29.24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>6</v>
+      </c>
+      <c r="B16">
+        <v>2.6545</v>
+      </c>
+      <c r="C16">
+        <v>74.15600000000001</v>
+      </c>
+      <c r="D16">
+        <v>9.85</v>
+      </c>
+      <c r="E16">
+        <v>75.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>7</v>
+      </c>
+      <c r="B17">
+        <v>2.3255</v>
+      </c>
+      <c r="C17">
+        <v>79.15600000000001</v>
+      </c>
+      <c r="D17">
+        <v>4.65</v>
+      </c>
+      <c r="E17">
+        <v>65.44450000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>7.45</v>
+      </c>
+      <c r="C18">
+        <v>74.651651</v>
+      </c>
+      <c r="D18">
+        <v>5.478</v>
+      </c>
+      <c r="E18">
+        <v>74.562</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="B19">
+        <v>9.538</v>
+      </c>
+      <c r="C19">
+        <v>69.56100000000001</v>
+      </c>
+      <c r="D19">
+        <v>6.56</v>
+      </c>
+      <c r="E19">
+        <v>23.23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>9.6</v>
+      </c>
+      <c r="C20">
+        <v>75.56999999999999</v>
+      </c>
+      <c r="D20">
+        <v>8.122999999999999</v>
+      </c>
+      <c r="E20">
+        <v>74.56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>11</v>
+      </c>
+      <c r="B21">
+        <v>4.21502</v>
+      </c>
+      <c r="C21">
+        <v>67.15600000000001</v>
+      </c>
+      <c r="D21">
+        <v>8.153</v>
+      </c>
+      <c r="E21">
+        <v>77.1561651</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>5</v>
+      </c>
+      <c r="B22">
+        <v>2.56</v>
+      </c>
+      <c r="C22">
+        <v>50.13</v>
+      </c>
+      <c r="D22">
+        <v>8.456</v>
+      </c>
+      <c r="E22">
+        <v>79.55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <v>13</v>
+      </c>
+      <c r="B23">
+        <v>1.9856</v>
+      </c>
+      <c r="C23">
+        <v>40.01</v>
+      </c>
+      <c r="D23">
+        <v>6.1561</v>
+      </c>
+      <c r="E23">
+        <v>54.23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="B6" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="B7" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="B8" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="B9" t="n">
+      <c r="B24">
+        <v>2.544</v>
+      </c>
+      <c r="C24">
+        <v>42.15</v>
+      </c>
+      <c r="D24">
+        <v>5.65</v>
+      </c>
+      <c r="E24">
+        <v>65.2323</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25">
+        <v>0.8078536860712388</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="B10" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="B11" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="B12" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="B13" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="B14" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="B15" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="B16" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="B17" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="B18" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="B19" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="B20" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>3</v>
-      </c>
-      <c r="B21" t="n">
-        <v>0.7893719111503914</v>
+      <c r="B26">
+        <v>78.84484149226773</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>